--- a/data/trans_dic/P24_4_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_4_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con mareos con bastante o mucha frecuencia</t>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,7 +734,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -695,62 +744,92 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,46%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>13,02%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17,74%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>4,74%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>4,54%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>5,75%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>5,95%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6,01%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>9,8%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,93</t>
+          <t>1,5; 3,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,34</t>
+          <t>0,99; 3,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,15</t>
+          <t>1,82; 4,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,02</t>
+          <t>1,74; 5,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,65; 9,06</t>
+          <t>3,11; 7,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,88</t>
+          <t>4,71; 9,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,99</t>
+          <t>6,26; 10,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,44</t>
+          <t>5,14; 8,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,91; 11,11</t>
+          <t>5,45; 9,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,51</t>
+          <t>6,52; 10,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,92</t>
+          <t>7,25; 11,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,88</t>
+          <t>10,7; 16,43</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,07</t>
+          <t>10,63; 15,61</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,63</t>
+          <t>15,2; 20,26</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,54</t>
+          <t>3,74; 5,97</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 5,84</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 7,02</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>4,83; 7,5</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>7,66; 11,36</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 11,73</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 14,89</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5,28%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>5,21%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>6,33%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18,35%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
         <is>
           <t>7,29%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12,71%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>3,55%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>6,2%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>8,81%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,24</t>
+          <t>0,91; 3,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,47</t>
+          <t>1,85; 8,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,93</t>
+          <t>3,37; 8,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,61</t>
+          <t>3,69; 7,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,33</t>
+          <t>5,5; 13,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,15</t>
+          <t>3,02; 8,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,04</t>
+          <t>4,88; 12,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,73</t>
+          <t>3,69; 7,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,33</t>
+          <t>4,79; 10,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 19,05</t>
+          <t>5,44; 9,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,85</t>
+          <t>6,62; 13,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,64</t>
+          <t>12,93; 20,21</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,93</t>
+          <t>8,53; 18,64</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,82</t>
+          <t>12,9; 24,1</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 11,72</t>
+          <t>2,62; 4,67</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 7,66</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>5,01; 8,13</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 9,56</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 15,09</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 12,15</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>9,82; 16,14</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>7,17%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>11,68%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>4,74%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>7,02%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>5,54%</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>9,6%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,05</t>
+          <t>0,58; 6,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,37</t>
+          <t>0,0; 6,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,68</t>
+          <t>0,83; 7,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 5,79</t>
+          <t>0,56; 7,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1,44; 8,1</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>4,21; 12,1</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 14,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 16,91</t>
+          <t>4,14; 11,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 14,42</t>
+          <t>3,2; 11,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>7,66; 17,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 14,17</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 23,11</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>2,86; 7,71</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>2,73; 8,15</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 10,1</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 7,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 7,39</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 10,77</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,31; 8,39</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 14,62</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>6,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,18%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>6,22%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,74%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>12,95%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>4,27%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>4,67%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>6,07%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>6,3%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,88%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>6,14%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>9,57%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,22</t>
+          <t>1,49; 3,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,75</t>
+          <t>1,69; 3,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,93</t>
+          <t>2,68; 4,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,12</t>
+          <t>2,8; 5,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,31</t>
+          <t>4,49; 8,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,53</t>
+          <t>4,65; 8,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 8,48</t>
+          <t>6,37; 9,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,68</t>
+          <t>5,09; 7,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,52</t>
+          <t>5,81; 8,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,58</t>
+          <t>7,01; 9,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,02</t>
+          <t>7,63; 10,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,76</t>
+          <t>12,7; 17,02</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 6,99</t>
+          <t>10,83; 15,32</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,46; 7,48</t>
+          <t>15,66; 20,37</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 11,23</t>
+          <t>3,58; 5,06</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 5,97</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>5,29; 7,05</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,46; 7,44</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 12,19</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 10,94</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>11,54; 14,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con mareos con bastante o mucha frecuencia (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41075</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>30007</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45853</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>45781</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>80787</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14784</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18487</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>121702</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>129587</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>154382</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>162299</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>242703</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>30885</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>41625</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>162777</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>159594</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>200235</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>208079</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>323490</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>45670</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>60113</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24630; 63002</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16380; 50936</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>29788; 67545</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28669; 94407</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50919; 117867</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10771; 21731</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14196; 23693</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>92124; 157332</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>98489; 166889</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>118903; 191656</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>131714; 204718</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>192721; 295921</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25225; 37043</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>35675; 47554</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>128310; 204863</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>125006; 201995</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>163592; 242819</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>167269; 259588</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>263421; 390719</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>37811; 54682</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>53275; 68732</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25730</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47388</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>71741</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>75964</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>109759</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3814</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5642</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>73454</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>98438</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>100820</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>124982</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>225204</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8330</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>12217</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>99184</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>145826</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>172561</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>200946</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>334962</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>12145</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>17859</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12569; 46722</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>25442; 110512</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46441; 114295</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50859; 108214</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>75899; 186467</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2186; 6282</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3561; 8795</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>52083; 103712</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66677; 148174</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>74280; 133935</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>91433; 180661</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>180324; 281884</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5590; 12219</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>8584; 16041</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>73165; 130652</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>105854; 211776</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>137470; 223308</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>156610; 263531</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>268819; 418625</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>8744; 16752</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>13697; 22521</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10059</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10503</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11427</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8818</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15332</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29531</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28641</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47637</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>37444</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>63935</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>39589</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>39143</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>59064</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>46262</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>79267</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2468; 28186</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 28103</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3488; 30901</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2376; 29741</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5973; 33490</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17056; 49269</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13186; 47895</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31133; 70101</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21232; 58372</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>39613; 95183</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>24377; 62968</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>21138; 61686</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>39295; 89023</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>27641; 70017</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>53609; 120737</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>76864</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>87897</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>129021</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>130563</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>205878</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18598</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24129</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>224686</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>256666</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>302840</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>324724</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>531842</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>39216</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>53843</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>301551</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>344563</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>431861</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>455287</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>737719</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>57814</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>77972</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>51494; 105744</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>58163; 137565</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>92098; 168895</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>96335; 179554</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>154215; 277915</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13993; 24308</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19092; 29386</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>184054; 272256</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>209678; 323720</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>252023; 357491</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>275538; 392876</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>457971; 614139</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>32807; 46399</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>47170; 61373</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>252682; 357624</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>280890; 421249</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>372144; 495782</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>385097; 525073</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>641137; 857908</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>49671; 66044</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>69389; 87082</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
